--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11786_Titled_HC_TrueConditions.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11786_Titled_HC_TrueConditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\True_conditionsFailure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247DF284-2953-4259-A366-E3B65396B3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0D88CC-3969-4214-97D3-04028CE551D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15560" xr2:uid="{7E5704FA-F7FB-4878-A32F-806D7E090EEB}"/>
+    <workbookView xWindow="8480" yWindow="1740" windowWidth="23000" windowHeight="17540" xr2:uid="{7E5704FA-F7FB-4878-A32F-806D7E090EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>SmartLookup String ClassificationGroup2 ( Integer age, String smokerIndicator, Double height, Double weight, String gender)</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>=height ==0</t>
+  </si>
+  <si>
+    <t>/Weight</t>
   </si>
 </sst>
 </file>
@@ -304,6 +307,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -341,10 +348,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD994A99-1194-4D5E-B99A-9908AC0A2424}">
   <dimension ref="B4:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,47 +679,47 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -735,98 +738,98 @@
       </c>
     </row>
     <row r="7" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="11"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="11"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="11"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="11"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="11"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="13"/>
       <c r="O12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="11"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="13"/>
       <c r="O13" t="s">
         <v>10</v>
       </c>
@@ -838,15 +841,15 @@
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="11"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="13"/>
       <c r="O14" t="s">
         <v>11</v>
       </c>
@@ -858,15 +861,15 @@
       </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="11"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="13"/>
       <c r="O15" t="s">
         <v>12</v>
       </c>
@@ -878,15 +881,15 @@
       </c>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="13"/>
       <c r="O16" t="s">
         <v>13</v>
       </c>
@@ -898,478 +901,478 @@
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="11"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="11"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="11"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="11"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="11"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="11"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="11"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="11"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="11"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="11"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="11"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="11"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="11"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="11"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="11"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="11"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="11"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="11"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="13"/>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="11"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="11"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="11"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="11"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="13"/>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="11"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="13"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="11"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="13"/>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="11"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="13"/>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="11"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="13"/>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="11"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="13"/>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="11"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="13"/>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="11"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="13"/>
     </row>
     <row r="46" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="11"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="13"/>
     </row>
     <row r="47" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="11"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="13"/>
     </row>
     <row r="48" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="11"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="13"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="11"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="13"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="11"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="13"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="11"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="13"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="11"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="13"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="11"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="13"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="11"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="13"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="11"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="13"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="11"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="13"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="11"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="13"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="11"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="13"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61" s="5" t="s">
@@ -1433,11 +1436,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="I7:I58"/>
-    <mergeCell ref="J7:J58"/>
-    <mergeCell ref="K7:K58"/>
-    <mergeCell ref="H7:H58"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="D7:D58"/>
     <mergeCell ref="E7:E58"/>
@@ -1449,6 +1447,11 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="I7:I58"/>
+    <mergeCell ref="J7:J58"/>
+    <mergeCell ref="K7:K58"/>
+    <mergeCell ref="H7:H58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
